--- a/biology/Botanique/Parc_de_l'Amérique-Latine/Parc_de_l'Amérique-Latine.xlsx
+++ b/biology/Botanique/Parc_de_l'Amérique-Latine/Parc_de_l'Amérique-Latine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_l%27Am%C3%A9rique-Latine</t>
+          <t>Parc_de_l'Amérique-Latine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de l'Amérique-Latine (ou parfois parc Ulric-Joseph-Tessier) est un espace vert de Québec, au Canada.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_l%27Am%C3%A9rique-Latine</t>
+          <t>Parc_de_l'Amérique-Latine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Généralités
-Le parc s'étend sur environ 1,2 ha dans la basse-ville de Québec[1]. Il occupe un espace grossièrement rectangulaire, d'environ 140 m de long sur 100 m de large, délimité au nord par l'embouchure de la rivière Saint-Charles, au sud par le palais de justice, à l'ouest par l'autoroute Dufferin-Montmorency et à l'est par le boulevard Jean-Lesage.
-Statues
-Le parc est orné par près d'une dizaine de statues de personnalités d'Amérique latine (et d'Haïti), dont plusieurs ont été offertes au Québec par des pays de cette région des Amériques.
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc s'étend sur environ 1,2 ha dans la basse-ville de Québec. Il occupe un espace grossièrement rectangulaire, d'environ 140 m de long sur 100 m de large, délimité au nord par l'embouchure de la rivière Saint-Charles, au sud par le palais de justice, à l'ouest par l'autoroute Dufferin-Montmorency et à l'est par le boulevard Jean-Lesage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parc_de_l'Amérique-Latine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_de_l%27Am%C3%A9rique-Latine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Statues</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est orné par près d'une dizaine de statues de personnalités d'Amérique latine (et d'Haïti), dont plusieurs ont été offertes au Québec par des pays de cette région des Amériques.
 On y trouve en particulier deux statues équestres, qui se font face :
 une statue équestre de Simón Bolívar (es) ; ce moulage d'une sculpture du sculpteur italien Adamo Tadolini est offert en 1983 par le Venezuela.
 une statue équestre de Bernardo O'Higgins, offerte par le Chili et inaugurée en 2007.
@@ -537,33 +589,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Parc_de_l%27Am%C3%A9rique-Latine</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_de_l'Amérique-Latine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parc_de_l%27Am%C3%A9rique-Latine</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de l'Amérique-Latine est inauguré en 1995[1]. Il a été créé pour souligner les liens entre le Québec et l'Amérique latine[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de l'Amérique-Latine est inauguré en 1995. Il a été créé pour souligner les liens entre le Québec et l'Amérique latine.
 </t>
         </is>
       </c>
